--- a/BalanceSheet/TYL_bal.xlsx
+++ b/BalanceSheet/TYL_bal.xlsx
@@ -1891,16 +1891,16 @@
         <v>99000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2937000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>2434000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-4318000.0</v>
+        <v>9000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-2020000.0</v>
+        <v>13000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>14977000.0</v>
@@ -3307,19 +3307,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-3267000.0</v>
+        <v>37000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-5478000.0</v>
+        <v>41000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1271000.0</v>
+        <v>46000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-1061000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-2668000.0</v>
+        <v>46000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>48442000.0</v>
@@ -5063,7 +5063,7 @@
         <v>-318000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-249000000.0</v>
+        <v>-249081000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>-169822000.0</v>
